--- a/natmiOut/OldD4/LR-pairs_lrc2p/Rtn4-Rtn4rl1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Rtn4-Rtn4rl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,184 +531,184 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.803061546606</v>
+        <v>41.528285</v>
       </c>
       <c r="H2">
-        <v>31.803061546606</v>
+        <v>124.584855</v>
       </c>
       <c r="I2">
-        <v>0.1137170024137614</v>
+        <v>0.137866712381124</v>
       </c>
       <c r="J2">
-        <v>0.1137170024137614</v>
+        <v>0.145939792231724</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>3.32718508640803</v>
+        <v>0.01333166666666667</v>
       </c>
       <c r="N2">
-        <v>3.32718508640803</v>
+        <v>0.039995</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.003064994513357115</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.004188487926012003</v>
       </c>
       <c r="Q2">
-        <v>105.8146720799842</v>
+        <v>0.5536412528583334</v>
       </c>
       <c r="R2">
-        <v>105.8146720799842</v>
+        <v>4.982771275725001</v>
       </c>
       <c r="S2">
-        <v>0.1137170024137614</v>
+        <v>0.0004225607170227284</v>
       </c>
       <c r="T2">
-        <v>0.1137170024137614</v>
+        <v>0.0006112670576872763</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>65.38784822794661</v>
+        <v>41.528285</v>
       </c>
       <c r="H3">
-        <v>65.38784822794661</v>
+        <v>124.584855</v>
       </c>
       <c r="I3">
-        <v>0.2338048518967697</v>
+        <v>0.137866712381124</v>
       </c>
       <c r="J3">
-        <v>0.2338048518967697</v>
+        <v>0.145939792231724</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>3.32718508640803</v>
+        <v>0.6770596666666666</v>
       </c>
       <c r="N3">
-        <v>3.32718508640803</v>
+        <v>2.031179</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.1556582695498485</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.2127158074026537</v>
       </c>
       <c r="Q3">
-        <v>217.5574734563357</v>
+        <v>28.11712679933833</v>
       </c>
       <c r="R3">
-        <v>217.5574734563357</v>
+        <v>253.054141194045</v>
       </c>
       <c r="S3">
-        <v>0.2338048518967697</v>
+        <v>0.02146009387777243</v>
       </c>
       <c r="T3">
-        <v>0.2338048518967697</v>
+        <v>0.03104370073674669</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>62.2565026684047</v>
+        <v>41.528285</v>
       </c>
       <c r="H4">
-        <v>62.2565026684047</v>
+        <v>124.584855</v>
       </c>
       <c r="I4">
-        <v>0.2226082182006422</v>
+        <v>0.137866712381124</v>
       </c>
       <c r="J4">
-        <v>0.2226082182006422</v>
+        <v>0.145939792231724</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.32718508640803</v>
+        <v>0.159092</v>
       </c>
       <c r="N4">
-        <v>3.32718508640803</v>
+        <v>0.477276</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.03657578000642656</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.04998286694275046</v>
       </c>
       <c r="Q4">
-        <v>207.1389072102378</v>
+        <v>6.60681791722</v>
       </c>
       <c r="R4">
-        <v>207.1389072102378</v>
+        <v>59.46136125498</v>
       </c>
       <c r="S4">
-        <v>0.2226082182006422</v>
+        <v>0.005042582542261274</v>
       </c>
       <c r="T4">
-        <v>0.2226082182006422</v>
+        <v>0.007294489216770907</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,114 +720,1044 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>72.2564920615435</v>
+        <v>41.528285</v>
       </c>
       <c r="H5">
-        <v>72.2564920615435</v>
+        <v>124.584855</v>
       </c>
       <c r="I5">
-        <v>0.2583648014557065</v>
+        <v>0.137866712381124</v>
       </c>
       <c r="J5">
-        <v>0.2583648014557065</v>
+        <v>0.145939792231724</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.32718508640803</v>
+        <v>3.500171</v>
       </c>
       <c r="N5">
-        <v>3.32718508640803</v>
+        <v>7.000342</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.8047009559303677</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.7331128377285839</v>
       </c>
       <c r="Q5">
-        <v>240.4107227833277</v>
+        <v>145.356098836735</v>
       </c>
       <c r="R5">
-        <v>240.4107227833277</v>
+        <v>872.13659302041</v>
       </c>
       <c r="S5">
-        <v>0.2583648014557065</v>
+        <v>0.1109414752440675</v>
       </c>
       <c r="T5">
-        <v>0.2583648014557065</v>
+        <v>0.1069903352205191</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>72.02213166666667</v>
+      </c>
+      <c r="H6">
+        <v>216.066395</v>
+      </c>
+      <c r="I6">
+        <v>0.2391010009578718</v>
+      </c>
+      <c r="J6">
+        <v>0.2531020708300187</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.01333166666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.039995</v>
+      </c>
+      <c r="O6">
+        <v>0.003064994513357115</v>
+      </c>
+      <c r="P6">
+        <v>0.004188487926012003</v>
+      </c>
+      <c r="Q6">
+        <v>0.9601750520027778</v>
+      </c>
+      <c r="R6">
+        <v>8.641575468025001</v>
+      </c>
+      <c r="S6">
+        <v>0.0007328432560740714</v>
+      </c>
+      <c r="T6">
+        <v>0.001060114967720168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>72.02213166666667</v>
+      </c>
+      <c r="H7">
+        <v>216.066395</v>
+      </c>
+      <c r="I7">
+        <v>0.2391010009578718</v>
+      </c>
+      <c r="J7">
+        <v>0.2531020708300187</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.6770596666666666</v>
+      </c>
+      <c r="N7">
+        <v>2.031179</v>
+      </c>
+      <c r="O7">
+        <v>0.1556582695498485</v>
+      </c>
+      <c r="P7">
+        <v>0.2127158074026537</v>
+      </c>
+      <c r="Q7">
+        <v>48.76328045885611</v>
+      </c>
+      <c r="R7">
+        <v>438.869524129705</v>
+      </c>
+      <c r="S7">
+        <v>0.03721804805673899</v>
+      </c>
+      <c r="T7">
+        <v>0.05383881135189106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>72.02213166666667</v>
+      </c>
+      <c r="H8">
+        <v>216.066395</v>
+      </c>
+      <c r="I8">
+        <v>0.2391010009578718</v>
+      </c>
+      <c r="J8">
+        <v>0.2531020708300187</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.159092</v>
+      </c>
+      <c r="N8">
+        <v>0.477276</v>
+      </c>
+      <c r="O8">
+        <v>0.03657578000642656</v>
+      </c>
+      <c r="P8">
+        <v>0.04998286694275046</v>
+      </c>
+      <c r="Q8">
+        <v>11.45814497111333</v>
+      </c>
+      <c r="R8">
+        <v>103.12330474002</v>
+      </c>
+      <c r="S8">
+        <v>0.008745305610351504</v>
+      </c>
+      <c r="T8">
+        <v>0.01265076712923143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>72.02213166666667</v>
+      </c>
+      <c r="H9">
+        <v>216.066395</v>
+      </c>
+      <c r="I9">
+        <v>0.2391010009578718</v>
+      </c>
+      <c r="J9">
+        <v>0.2531020708300187</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.500171</v>
+      </c>
+      <c r="N9">
+        <v>7.000342</v>
+      </c>
+      <c r="O9">
+        <v>0.8047009559303677</v>
+      </c>
+      <c r="P9">
+        <v>0.7331128377285839</v>
+      </c>
+      <c r="Q9">
+        <v>252.0897766178483</v>
+      </c>
+      <c r="R9">
+        <v>1512.53865970709</v>
+      </c>
+      <c r="S9">
+        <v>0.1924048040347072</v>
+      </c>
+      <c r="T9">
+        <v>0.185552377381176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>65.33487700000001</v>
+      </c>
+      <c r="H10">
+        <v>196.004631</v>
+      </c>
+      <c r="I10">
+        <v>0.2169004738773853</v>
+      </c>
+      <c r="J10">
+        <v>0.2296015444621718</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.01333166666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.039995</v>
+      </c>
+      <c r="O10">
+        <v>0.003064994513357115</v>
+      </c>
+      <c r="P10">
+        <v>0.004188487926012003</v>
+      </c>
+      <c r="Q10">
+        <v>0.8710228018716668</v>
+      </c>
+      <c r="R10">
+        <v>7.839205216845001</v>
+      </c>
+      <c r="S10">
+        <v>0.0006647987623787442</v>
+      </c>
+      <c r="T10">
+        <v>0.0009616832967735148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>65.33487700000001</v>
+      </c>
+      <c r="H11">
+        <v>196.004631</v>
+      </c>
+      <c r="I11">
+        <v>0.2169004738773853</v>
+      </c>
+      <c r="J11">
+        <v>0.2296015444621718</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.6770596666666666</v>
+      </c>
+      <c r="N11">
+        <v>2.031179</v>
+      </c>
+      <c r="O11">
+        <v>0.1556582695498485</v>
+      </c>
+      <c r="P11">
+        <v>0.2127158074026537</v>
+      </c>
+      <c r="Q11">
+        <v>44.23561004332767</v>
+      </c>
+      <c r="R11">
+        <v>398.120490389949</v>
+      </c>
+      <c r="S11">
+        <v>0.03376235242829592</v>
+      </c>
+      <c r="T11">
+        <v>0.04883987791116717</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>65.33487700000001</v>
+      </c>
+      <c r="H12">
+        <v>196.004631</v>
+      </c>
+      <c r="I12">
+        <v>0.2169004738773853</v>
+      </c>
+      <c r="J12">
+        <v>0.2296015444621718</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.159092</v>
+      </c>
+      <c r="N12">
+        <v>0.477276</v>
+      </c>
+      <c r="O12">
+        <v>0.03657578000642656</v>
+      </c>
+      <c r="P12">
+        <v>0.04998286694275046</v>
+      </c>
+      <c r="Q12">
+        <v>10.394256251684</v>
+      </c>
+      <c r="R12">
+        <v>93.548306265156</v>
+      </c>
+      <c r="S12">
+        <v>0.007933304015828915</v>
+      </c>
+      <c r="T12">
+        <v>0.01147614344670274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>47.9645784096898</v>
-      </c>
-      <c r="H6">
-        <v>47.9645784096898</v>
-      </c>
-      <c r="I6">
-        <v>0.1715051260331203</v>
-      </c>
-      <c r="J6">
-        <v>0.1715051260331203</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>3.32718508640803</v>
-      </c>
-      <c r="N6">
-        <v>3.32718508640803</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>159.5870299605685</v>
-      </c>
-      <c r="R6">
-        <v>159.5870299605685</v>
-      </c>
-      <c r="S6">
-        <v>0.1715051260331203</v>
-      </c>
-      <c r="T6">
-        <v>0.1715051260331203</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>65.33487700000001</v>
+      </c>
+      <c r="H13">
+        <v>196.004631</v>
+      </c>
+      <c r="I13">
+        <v>0.2169004738773853</v>
+      </c>
+      <c r="J13">
+        <v>0.2296015444621718</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.500171</v>
+      </c>
+      <c r="N13">
+        <v>7.000342</v>
+      </c>
+      <c r="O13">
+        <v>0.8047009559303677</v>
+      </c>
+      <c r="P13">
+        <v>0.7331128377285839</v>
+      </c>
+      <c r="Q13">
+        <v>228.683241763967</v>
+      </c>
+      <c r="R13">
+        <v>1372.099450583802</v>
+      </c>
+      <c r="S13">
+        <v>0.1745400186708817</v>
+      </c>
+      <c r="T13">
+        <v>0.1683238398075284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>72.34659833333335</v>
+      </c>
+      <c r="H14">
+        <v>217.039795</v>
+      </c>
+      <c r="I14">
+        <v>0.2401781740848285</v>
+      </c>
+      <c r="J14">
+        <v>0.2542423201304522</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.01333166666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.039995</v>
+      </c>
+      <c r="O14">
+        <v>0.003064994513357115</v>
+      </c>
+      <c r="P14">
+        <v>0.004188487926012003</v>
+      </c>
+      <c r="Q14">
+        <v>0.9645007334472224</v>
+      </c>
+      <c r="R14">
+        <v>8.680506601025002</v>
+      </c>
+      <c r="S14">
+        <v>0.0007361447857981294</v>
+      </c>
+      <c r="T14">
+        <v>0.001064890888147678</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>72.34659833333335</v>
+      </c>
+      <c r="H15">
+        <v>217.039795</v>
+      </c>
+      <c r="I15">
+        <v>0.2401781740848285</v>
+      </c>
+      <c r="J15">
+        <v>0.2542423201304522</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.6770596666666666</v>
+      </c>
+      <c r="N15">
+        <v>2.031179</v>
+      </c>
+      <c r="O15">
+        <v>0.1556582695498485</v>
+      </c>
+      <c r="P15">
+        <v>0.2127158074026537</v>
+      </c>
+      <c r="Q15">
+        <v>48.9829637520339</v>
+      </c>
+      <c r="R15">
+        <v>440.846673768305</v>
+      </c>
+      <c r="S15">
+        <v>0.03738571896168667</v>
+      </c>
+      <c r="T15">
+        <v>0.05408136040247309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>72.34659833333335</v>
+      </c>
+      <c r="H16">
+        <v>217.039795</v>
+      </c>
+      <c r="I16">
+        <v>0.2401781740848285</v>
+      </c>
+      <c r="J16">
+        <v>0.2542423201304522</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.159092</v>
+      </c>
+      <c r="N16">
+        <v>0.477276</v>
+      </c>
+      <c r="O16">
+        <v>0.03657578000642656</v>
+      </c>
+      <c r="P16">
+        <v>0.04998286694275046</v>
+      </c>
+      <c r="Q16">
+        <v>11.50976502204667</v>
+      </c>
+      <c r="R16">
+        <v>103.58788519842</v>
+      </c>
+      <c r="S16">
+        <v>0.008784704057671906</v>
+      </c>
+      <c r="T16">
+        <v>0.01270776005829656</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>72.34659833333335</v>
+      </c>
+      <c r="H17">
+        <v>217.039795</v>
+      </c>
+      <c r="I17">
+        <v>0.2401781740848285</v>
+      </c>
+      <c r="J17">
+        <v>0.2542423201304522</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.500171</v>
+      </c>
+      <c r="N17">
+        <v>7.000342</v>
+      </c>
+      <c r="O17">
+        <v>0.8047009559303677</v>
+      </c>
+      <c r="P17">
+        <v>0.7331128377285839</v>
+      </c>
+      <c r="Q17">
+        <v>253.2254654349817</v>
+      </c>
+      <c r="R17">
+        <v>1519.35279260989</v>
+      </c>
+      <c r="S17">
+        <v>0.1932716062796717</v>
+      </c>
+      <c r="T17">
+        <v>0.1863883087815349</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>49.988644</v>
+      </c>
+      <c r="H18">
+        <v>99.977288</v>
+      </c>
+      <c r="I18">
+        <v>0.1659536386987904</v>
+      </c>
+      <c r="J18">
+        <v>0.1171142723456333</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.01333166666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.039995</v>
+      </c>
+      <c r="O18">
+        <v>0.003064994513357115</v>
+      </c>
+      <c r="P18">
+        <v>0.004188487926012003</v>
+      </c>
+      <c r="Q18">
+        <v>0.6664319389266667</v>
+      </c>
+      <c r="R18">
+        <v>3.99859163356</v>
+      </c>
+      <c r="S18">
+        <v>0.0005086469920834417</v>
+      </c>
+      <c r="T18">
+        <v>0.0004905317156833664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>49.988644</v>
+      </c>
+      <c r="H19">
+        <v>99.977288</v>
+      </c>
+      <c r="I19">
+        <v>0.1659536386987904</v>
+      </c>
+      <c r="J19">
+        <v>0.1171142723456333</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.6770596666666666</v>
+      </c>
+      <c r="N19">
+        <v>2.031179</v>
+      </c>
+      <c r="O19">
+        <v>0.1556582695498485</v>
+      </c>
+      <c r="P19">
+        <v>0.2127158074026537</v>
+      </c>
+      <c r="Q19">
+        <v>33.84529464375866</v>
+      </c>
+      <c r="R19">
+        <v>203.071767862552</v>
+      </c>
+      <c r="S19">
+        <v>0.02583205622535449</v>
+      </c>
+      <c r="T19">
+        <v>0.02491205700037566</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>49.988644</v>
+      </c>
+      <c r="H20">
+        <v>99.977288</v>
+      </c>
+      <c r="I20">
+        <v>0.1659536386987904</v>
+      </c>
+      <c r="J20">
+        <v>0.1171142723456333</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.159092</v>
+      </c>
+      <c r="N20">
+        <v>0.477276</v>
+      </c>
+      <c r="O20">
+        <v>0.03657578000642656</v>
+      </c>
+      <c r="P20">
+        <v>0.04998286694275046</v>
+      </c>
+      <c r="Q20">
+        <v>7.952793351247999</v>
+      </c>
+      <c r="R20">
+        <v>47.716760107488</v>
+      </c>
+      <c r="S20">
+        <v>0.006069883780312956</v>
+      </c>
+      <c r="T20">
+        <v>0.005853707091748828</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>49.988644</v>
+      </c>
+      <c r="H21">
+        <v>99.977288</v>
+      </c>
+      <c r="I21">
+        <v>0.1659536386987904</v>
+      </c>
+      <c r="J21">
+        <v>0.1171142723456333</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.500171</v>
+      </c>
+      <c r="N21">
+        <v>7.000342</v>
+      </c>
+      <c r="O21">
+        <v>0.8047009559303677</v>
+      </c>
+      <c r="P21">
+        <v>0.7331128377285839</v>
+      </c>
+      <c r="Q21">
+        <v>174.968802058124</v>
+      </c>
+      <c r="R21">
+        <v>699.875208232496</v>
+      </c>
+      <c r="S21">
+        <v>0.1335430517010395</v>
+      </c>
+      <c r="T21">
+        <v>0.08585797653782544</v>
       </c>
     </row>
   </sheetData>
